--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eng_dic\interface\OnlyCarrot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98370AB-6F42-4B76-9A65-B1F221DDF5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2205" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="usersheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="usersheet"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -71,13 +52,16 @@
     <t>박찬일</t>
   </si>
   <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>adpw3</t>
-  </si>
-  <si>
-    <t>배재학</t>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>pw10</t>
+  </si>
+  <si>
+    <t>황지성</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
   <si>
     <t>user1</t>
@@ -89,9 +73,6 @@
     <t>장주원</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>user2</t>
   </si>
   <si>
@@ -162,36 +143,26 @@
   </si>
   <si>
     <t>이강훈</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>pw10</t>
-  </si>
-  <si>
-    <t>황지성</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,12 +174,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFaeaeae"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -218,43 +210,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -281,116 +281,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,176 +368,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,233 +560,215 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eng_dic\interface\OnlyCarrot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98370AB-6F42-4B76-9A65-B1F221DDF5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2205" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="usersheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="usersheet"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -176,22 +157,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,12 +183,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFaeaeae"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -218,43 +219,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -281,116 +290,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,176 +377,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,233 +569,232 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\coding\Eng_dic\main\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47762E4D-A9A3-46E8-A48F-B7A15C28286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2796" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="usersheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="usersheet"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,6 +31,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>LastTest</t>
+  </si>
+  <si>
     <t>ad1</t>
   </si>
   <si>
@@ -170,35 +167,32 @@
   </si>
   <si>
     <t>ssss</t>
-  </si>
-  <si>
-    <t>LastTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,13 +204,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEAEAE"/>
+        <fgColor rgb="FFaeaeae"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFa6a6a6"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,16 +223,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -252,39 +245,55 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,10 +304,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -336,71 +345,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,7 +437,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -451,11 +460,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -464,13 +473,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -480,7 +489,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -489,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,10 +515,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -574,24 +583,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,289 +617,289 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>700</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45431</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -155,18 +155,6 @@
   </si>
   <si>
     <t>황지성</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>ssss</t>
   </si>
 </sst>
 </file>
@@ -174,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,12 +173,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -247,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,7 +237,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -264,17 +246,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -587,21 +560,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -638,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -658,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -678,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -698,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -718,10 +691,10 @@
         <v>700</v>
       </c>
       <c r="F6" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -738,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -758,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -778,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -798,10 +771,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -818,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -838,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -858,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -878,26 +851,8 @@
         <v>4</v>
       </c>
       <c r="F14" s="6">
-        <v>45431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>25569.3752959375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -104,13 +104,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ad1</t>
@@ -553,7 +553,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>ad2</t>
@@ -581,7 +581,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>ad3</t>
@@ -609,7 +609,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>user1</t>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>25569.3752959375</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>user2</t>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>45438</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>user3</t>
@@ -693,7 +693,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>user4</t>
@@ -721,7 +721,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>user5</t>
@@ -749,7 +749,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="10" ht="21" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>user6</t>
@@ -777,7 +777,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>user7</t>
@@ -805,7 +805,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>user8</t>
@@ -833,7 +833,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>user9</t>
@@ -861,7 +861,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row r="14" ht="21" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>user10</t>

--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="0" windowWidth="13332" windowHeight="12240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -30,6 +30,13 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -40,12 +47,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFaeaeae"/>
+        <fgColor rgb="FFAEAEAE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa6a6a6"/>
+        <fgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,16 +66,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -83,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -103,18 +110,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -193,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -234,71 +236,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -326,7 +328,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -349,11 +351,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -362,13 +364,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -378,7 +380,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -387,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -396,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -404,10 +406,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -477,20 +479,17 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="12.3984375" bestFit="1" customWidth="1" min="1" max="4"/>
+    <col width="12.3984375" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="10.8984375" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -631,10 +630,10 @@
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>25569.37552590278</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -889,7 +888,83 @@
         <v>25569.3752959375</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>user11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>user11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pw11</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>user12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>사용자</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pw12</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>user13</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>김사람</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pw13</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -282,11 +282,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -605,12 +602,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -633,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -653,7 +650,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -673,7 +670,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -693,7 +690,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -710,10 +707,10 @@
         <v>660</v>
       </c>
       <c r="F5" s="6">
-        <v>25569.375525925927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -730,10 +727,10 @@
         <v>710</v>
       </c>
       <c r="F6" s="6">
-        <v>25569.375525925927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+        <v>25569.3752959375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -753,7 +750,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -773,7 +770,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -793,7 +790,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -813,7 +810,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -833,7 +830,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -853,7 +850,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -873,7 +870,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -893,7 +890,7 @@
         <v>25569.3752959375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -906,12 +903,12 @@
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>600</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="F15" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -924,12 +921,12 @@
       <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>600</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="F16" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
@@ -942,10 +939,10 @@
       <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>640</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/DB/UserList.xlsx
+++ b/main/DB/UserList.xlsx
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,12 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -259,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -281,9 +275,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -602,12 +593,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -906,7 +897,7 @@
       <c r="E15" s="5">
         <v>600</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
@@ -924,7 +915,7 @@
       <c r="E16" s="5">
         <v>600</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7" t="s">
@@ -942,7 +933,7 @@
       <c r="E17" s="5">
         <v>640</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
